--- a/data/raw/Consumer_Price_Index_for_All_Urban_Consumers_Food_in_US_City_Average_data.xlsx
+++ b/data/raw/Consumer_Price_Index_for_All_Urban_Consumers_Food_in_US_City_Average_data.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="461">
   <si>
     <t xml:space="preserve">realtime_start</t>
   </si>
@@ -27,78 +27,6 @@
   </si>
   <si>
     <t xml:space="preserve">2025-02-22</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">188.700</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">188.600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-03-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">189.100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-04-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190.400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190.600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190.500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-07-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">190.900</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">191.100</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">191.500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-11-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.600</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2005-12-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">192.900</t>
   </si>
   <si>
     <t xml:space="preserve">2006-01-01</t>
@@ -2397,7 +2325,7 @@
         <v>87</v>
       </c>
       <c r="D43" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="44">
@@ -2408,10 +2336,10 @@
         <v>4</v>
       </c>
       <c r="C44" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" t="s">
         <v>89</v>
-      </c>
-      <c r="D44" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="45">
@@ -2422,10 +2350,10 @@
         <v>4</v>
       </c>
       <c r="C45" t="s">
+        <v>90</v>
+      </c>
+      <c r="D45" t="s">
         <v>91</v>
-      </c>
-      <c r="D45" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="46">
@@ -2436,10 +2364,10 @@
         <v>4</v>
       </c>
       <c r="C46" t="s">
+        <v>92</v>
+      </c>
+      <c r="D46" t="s">
         <v>93</v>
-      </c>
-      <c r="D46" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="47">
@@ -2450,10 +2378,10 @@
         <v>4</v>
       </c>
       <c r="C47" t="s">
+        <v>94</v>
+      </c>
+      <c r="D47" t="s">
         <v>95</v>
-      </c>
-      <c r="D47" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="48">
@@ -2464,10 +2392,10 @@
         <v>4</v>
       </c>
       <c r="C48" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" t="s">
         <v>97</v>
-      </c>
-      <c r="D48" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="49">
@@ -2478,10 +2406,10 @@
         <v>4</v>
       </c>
       <c r="C49" t="s">
+        <v>98</v>
+      </c>
+      <c r="D49" t="s">
         <v>99</v>
-      </c>
-      <c r="D49" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="50">
@@ -2492,10 +2420,10 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
+        <v>100</v>
+      </c>
+      <c r="D50" t="s">
         <v>101</v>
-      </c>
-      <c r="D50" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="51">
@@ -2506,10 +2434,10 @@
         <v>4</v>
       </c>
       <c r="C51" t="s">
+        <v>102</v>
+      </c>
+      <c r="D51" t="s">
         <v>103</v>
-      </c>
-      <c r="D51" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="52">
@@ -2520,10 +2448,10 @@
         <v>4</v>
       </c>
       <c r="C52" t="s">
+        <v>104</v>
+      </c>
+      <c r="D52" t="s">
         <v>105</v>
-      </c>
-      <c r="D52" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="53">
@@ -2534,10 +2462,10 @@
         <v>4</v>
       </c>
       <c r="C53" t="s">
+        <v>106</v>
+      </c>
+      <c r="D53" t="s">
         <v>107</v>
-      </c>
-      <c r="D53" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="54">
@@ -2548,10 +2476,10 @@
         <v>4</v>
       </c>
       <c r="C54" t="s">
+        <v>108</v>
+      </c>
+      <c r="D54" t="s">
         <v>109</v>
-      </c>
-      <c r="D54" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="55">
@@ -2562,10 +2490,10 @@
         <v>4</v>
       </c>
       <c r="C55" t="s">
+        <v>110</v>
+      </c>
+      <c r="D55" t="s">
         <v>111</v>
-      </c>
-      <c r="D55" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="56">
@@ -2579,7 +2507,7 @@
         <v>112</v>
       </c>
       <c r="D56" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57">
@@ -2590,10 +2518,10 @@
         <v>4</v>
       </c>
       <c r="C57" t="s">
+        <v>113</v>
+      </c>
+      <c r="D57" t="s">
         <v>114</v>
-      </c>
-      <c r="D57" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="58">
@@ -2604,10 +2532,10 @@
         <v>4</v>
       </c>
       <c r="C58" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" t="s">
         <v>116</v>
-      </c>
-      <c r="D58" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="59">
@@ -2618,10 +2546,10 @@
         <v>4</v>
       </c>
       <c r="C59" t="s">
+        <v>117</v>
+      </c>
+      <c r="D59" t="s">
         <v>118</v>
-      </c>
-      <c r="D59" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="60">
@@ -2632,10 +2560,10 @@
         <v>4</v>
       </c>
       <c r="C60" t="s">
+        <v>119</v>
+      </c>
+      <c r="D60" t="s">
         <v>120</v>
-      </c>
-      <c r="D60" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="61">
@@ -2646,10 +2574,10 @@
         <v>4</v>
       </c>
       <c r="C61" t="s">
+        <v>121</v>
+      </c>
+      <c r="D61" t="s">
         <v>122</v>
-      </c>
-      <c r="D61" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="62">
@@ -2660,10 +2588,10 @@
         <v>4</v>
       </c>
       <c r="C62" t="s">
+        <v>123</v>
+      </c>
+      <c r="D62" t="s">
         <v>124</v>
-      </c>
-      <c r="D62" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="63">
@@ -2674,10 +2602,10 @@
         <v>4</v>
       </c>
       <c r="C63" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" t="s">
         <v>126</v>
-      </c>
-      <c r="D63" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="64">
@@ -2688,10 +2616,10 @@
         <v>4</v>
       </c>
       <c r="C64" t="s">
+        <v>127</v>
+      </c>
+      <c r="D64" t="s">
         <v>128</v>
-      </c>
-      <c r="D64" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="65">
@@ -2702,10 +2630,10 @@
         <v>4</v>
       </c>
       <c r="C65" t="s">
+        <v>129</v>
+      </c>
+      <c r="D65" t="s">
         <v>130</v>
-      </c>
-      <c r="D65" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="66">
@@ -2716,10 +2644,10 @@
         <v>4</v>
       </c>
       <c r="C66" t="s">
+        <v>131</v>
+      </c>
+      <c r="D66" t="s">
         <v>132</v>
-      </c>
-      <c r="D66" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="67">
@@ -2730,10 +2658,10 @@
         <v>4</v>
       </c>
       <c r="C67" t="s">
+        <v>133</v>
+      </c>
+      <c r="D67" t="s">
         <v>134</v>
-      </c>
-      <c r="D67" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="68">
@@ -2744,10 +2672,10 @@
         <v>4</v>
       </c>
       <c r="C68" t="s">
+        <v>135</v>
+      </c>
+      <c r="D68" t="s">
         <v>136</v>
-      </c>
-      <c r="D68" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="69">
@@ -5016,174 +4944,6 @@
       </c>
       <c r="D230" t="s">
         <v>460</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" t="s">
-        <v>4</v>
-      </c>
-      <c r="B231" t="s">
-        <v>4</v>
-      </c>
-      <c r="C231" t="s">
-        <v>461</v>
-      </c>
-      <c r="D231" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" t="s">
-        <v>4</v>
-      </c>
-      <c r="B232" t="s">
-        <v>4</v>
-      </c>
-      <c r="C232" t="s">
-        <v>463</v>
-      </c>
-      <c r="D232" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" t="s">
-        <v>4</v>
-      </c>
-      <c r="B233" t="s">
-        <v>4</v>
-      </c>
-      <c r="C233" t="s">
-        <v>465</v>
-      </c>
-      <c r="D233" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="s">
-        <v>4</v>
-      </c>
-      <c r="B234" t="s">
-        <v>4</v>
-      </c>
-      <c r="C234" t="s">
-        <v>467</v>
-      </c>
-      <c r="D234" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="s">
-        <v>4</v>
-      </c>
-      <c r="B235" t="s">
-        <v>4</v>
-      </c>
-      <c r="C235" t="s">
-        <v>469</v>
-      </c>
-      <c r="D235" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="s">
-        <v>4</v>
-      </c>
-      <c r="B236" t="s">
-        <v>4</v>
-      </c>
-      <c r="C236" t="s">
-        <v>471</v>
-      </c>
-      <c r="D236" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="s">
-        <v>4</v>
-      </c>
-      <c r="B237" t="s">
-        <v>4</v>
-      </c>
-      <c r="C237" t="s">
-        <v>473</v>
-      </c>
-      <c r="D237" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" t="s">
-        <v>4</v>
-      </c>
-      <c r="B238" t="s">
-        <v>4</v>
-      </c>
-      <c r="C238" t="s">
-        <v>475</v>
-      </c>
-      <c r="D238" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="A239" t="s">
-        <v>4</v>
-      </c>
-      <c r="B239" t="s">
-        <v>4</v>
-      </c>
-      <c r="C239" t="s">
-        <v>477</v>
-      </c>
-      <c r="D239" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="A240" t="s">
-        <v>4</v>
-      </c>
-      <c r="B240" t="s">
-        <v>4</v>
-      </c>
-      <c r="C240" t="s">
-        <v>479</v>
-      </c>
-      <c r="D240" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" t="s">
-        <v>4</v>
-      </c>
-      <c r="B241" t="s">
-        <v>4</v>
-      </c>
-      <c r="C241" t="s">
-        <v>481</v>
-      </c>
-      <c r="D241" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" t="s">
-        <v>4</v>
-      </c>
-      <c r="B242" t="s">
-        <v>4</v>
-      </c>
-      <c r="C242" t="s">
-        <v>483</v>
-      </c>
-      <c r="D242" t="s">
-        <v>484</v>
       </c>
     </row>
   </sheetData>
